--- a/项目数据库设计/古月系统数据库.xlsx
+++ b/项目数据库设计/古月系统数据库.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="12216" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="161">
   <si>
     <t>字段名</t>
   </si>
@@ -531,6 +531,176 @@
   </si>
   <si>
     <t>慢sql记录服务器配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slow_set_log</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢sql记录设置记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_querytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>igint</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mansql日志状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置慢日志记录时间单位s，支持小数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_slowlogstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_updatetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_starttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_endtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -929,21 +1099,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -957,7 +1127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000000001</v>
       </c>
@@ -971,7 +1141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000000002</v>
       </c>
@@ -985,7 +1155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000000003</v>
       </c>
@@ -999,7 +1169,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000000004</v>
       </c>
@@ -1013,7 +1183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000005</v>
       </c>
@@ -1027,7 +1197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000000006</v>
       </c>
@@ -1041,53 +1211,60 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000000007</v>
+      </c>
       <c r="B8" t="s">
         <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>123</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000000008</v>
+      </c>
       <c r="B9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>122</v>
+      <c r="C9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="42.375" customWidth="1"/>
-    <col min="6" max="6" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000000001</v>
       </c>
@@ -1124,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000000001</v>
       </c>
@@ -1141,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000000001</v>
       </c>
@@ -1158,7 +1335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000000001</v>
       </c>
@@ -1175,7 +1352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000001</v>
       </c>
@@ -1192,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000000001</v>
       </c>
@@ -1209,7 +1386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000000001</v>
       </c>
@@ -1226,7 +1403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000000001</v>
       </c>
@@ -1243,7 +1420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000000002</v>
       </c>
@@ -1260,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000000002</v>
       </c>
@@ -1277,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000000002</v>
       </c>
@@ -1294,7 +1471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1000000002</v>
       </c>
@@ -1311,7 +1488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000000002</v>
       </c>
@@ -1328,7 +1505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1000000003</v>
       </c>
@@ -1345,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1000000003</v>
       </c>
@@ -1362,7 +1539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1000000003</v>
       </c>
@@ -1379,7 +1556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000000003</v>
       </c>
@@ -1396,7 +1573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1000000004</v>
       </c>
@@ -1413,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000000004</v>
       </c>
@@ -1430,7 +1607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1000000004</v>
       </c>
@@ -1447,7 +1624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000000004</v>
       </c>
@@ -1464,7 +1641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1000000005</v>
       </c>
@@ -1481,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1000000005</v>
       </c>
@@ -1498,7 +1675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1000000005</v>
       </c>
@@ -1515,7 +1692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1000000005</v>
       </c>
@@ -1532,7 +1709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1000000005</v>
       </c>
@@ -1549,7 +1726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1000000005</v>
       </c>
@@ -1566,7 +1743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1000000006</v>
       </c>
@@ -1583,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1000000006</v>
       </c>
@@ -1600,7 +1777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1000000006</v>
       </c>
@@ -1617,7 +1794,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1000000006</v>
       </c>
@@ -1634,7 +1811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1000000006</v>
       </c>
@@ -1651,7 +1828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1000000006</v>
       </c>
@@ -1668,7 +1845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1000000006</v>
       </c>
@@ -1685,7 +1862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000000006</v>
       </c>
@@ -1702,7 +1879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000000006</v>
       </c>
@@ -1719,7 +1896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1000000006</v>
       </c>
@@ -1736,7 +1913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1000000006</v>
       </c>
@@ -1753,7 +1930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1000000006</v>
       </c>
@@ -1770,7 +1947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1000000006</v>
       </c>
@@ -1787,7 +1964,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1000000006</v>
       </c>
@@ -1804,7 +1981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1000000006</v>
       </c>
@@ -1821,7 +1998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1000000006</v>
       </c>
@@ -1838,7 +2015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1000000006</v>
       </c>
@@ -1855,7 +2032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1000000006</v>
       </c>
@@ -1870,6 +2047,244 @@
       </c>
       <c r="E46" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1000000007</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1000000007</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1000000007</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1000000007</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1000000007</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1000000007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1000000007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1000000007</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1000000008</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1000000008</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1000000008</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1000000008</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1000000008</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1000000008</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1888,20 +2303,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +2327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000000004</v>
       </c>
@@ -1929,7 +2344,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000000004</v>
       </c>

--- a/项目数据库设计/古月系统数据库.xlsx
+++ b/项目数据库设计/古月系统数据库.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="235">
   <si>
     <t>字段名</t>
   </si>
@@ -522,15 +522,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>slowsqlcenter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_server_config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢sql记录服务器配置</t>
+    <t>usercenter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_corp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user_permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户所属角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -538,36 +594,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>t_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slow_set_log</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢sql记录设置记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long_querytime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>startid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>endid</t>
+    <t>bh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_parent_corp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corp_user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corp_user_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -575,11 +642,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -587,20 +654,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>igint</t>
-    </r>
+    <t>char(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位别名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父单位编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位法人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位法人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_corp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_parent_dept</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -608,23 +718,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>服务器IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mansql日志状态</t>
+    <t>部门编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单位编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父部门编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门别名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 -1删除 1 正常 0 初始化 默认为0 后期增加审核状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_dept_manage_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -632,31 +766,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置慢日志记录时间单位s，支持小数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(10,4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
+    <t>bh_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_corp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别 1男2女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单位编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -664,43 +858,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c_ip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_port</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_username</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_slowlogstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_updatetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_createtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_starttime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_endtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
+    <t>rightkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_create_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 -1删除 1 正常 0 初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1099,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1221,8 +1491,8 @@
       <c r="C8" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
+      <c r="D8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,11 +1502,95 @@
       <c r="B9" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
         <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1000000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1000000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2057,13 +2411,13 @@
         <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,13 +2428,13 @@
         <v>123</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,13 +2445,13 @@
         <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,13 +2462,13 @@
         <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>139</v>
+      <c r="E50" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,13 +2479,13 @@
         <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,13 +2496,13 @@
         <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,13 +2513,13 @@
         <v>123</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,115 +2530,1305 @@
         <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1000000008</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>1000000007</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1000000008</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>1000000007</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1000000008</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>1000000007</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1000000008</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>1000000007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>147</v>
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1000000008</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>126</v>
+      <c r="B59" t="s">
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="E59" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1000000008</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>126</v>
+      <c r="B60" t="s">
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1000000008</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1000000008</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1000000008</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1000000008</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1000000008</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1000000008</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1000000008</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1000000008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1000000008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1000000008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>149</v>
+      </c>
+      <c r="D70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1000000008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1000000009</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1000000009</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1000000009</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1000000009</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1000000009</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1000000009</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1000000009</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1000000009</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1000000009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1000000009</v>
+      </c>
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1000000009</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1000000009</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1000000009</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1000000009</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1000000009</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1000000010</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1000000010</v>
+      </c>
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1000000010</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1000000010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1000000010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1000000010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1000000010</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1000000010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1000000010</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1000000010</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1000000010</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1000000010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1000000011</v>
+      </c>
+      <c r="B99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1000000011</v>
+      </c>
+      <c r="B100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1000000011</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1000000011</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1000000011</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1000000011</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1000000011</v>
+      </c>
+      <c r="B105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1000000011</v>
+      </c>
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1000000011</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1000000011</v>
+      </c>
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1000000011</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1000000012</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1000000012</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1000000012</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1000000012</v>
+      </c>
+      <c r="B113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1000000012</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1000000012</v>
+      </c>
+      <c r="B115" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D115" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1000000012</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1000000013</v>
+      </c>
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1000000013</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1000000013</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1000000013</v>
+      </c>
+      <c r="B120" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1000000013</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1000000013</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1000000013</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D123" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1000000014</v>
+      </c>
+      <c r="B124" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1000000014</v>
+      </c>
+      <c r="B125" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1000000014</v>
+      </c>
+      <c r="B126" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1000000014</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1000000014</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1000000014</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" t="s">
+        <v>218</v>
+      </c>
+      <c r="E129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1000000014</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
